--- a/Beginner/Slides/Lec_9_10.xlsx
+++ b/Beginner/Slides/Lec_9_10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179D3670-B8AC-BC47-8C37-1E00F82811E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78036B85-CCD9-154C-9970-3F36F0225C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="6" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="7" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -4477,7 +4477,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="77">
+  <fonts count="78">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4859,21 +4859,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="5" tint="0.39997558519241921"/>
       <name val="Kai Regular"/>
@@ -4940,6 +4925,25 @@
       <sz val="26"/>
       <color theme="8"/>
       <name val="Kai Regular"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -5060,7 +5064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5194,16 +5198,21 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5228,16 +5237,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="76" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6016,8 +6021,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>633186</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -6077,8 +6082,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>607786</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
@@ -6752,7 +6757,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="104" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6766,7 +6771,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="99"/>
+      <c r="D29" s="104"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -6778,7 +6783,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="99"/>
+      <c r="D30" s="104"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -6790,7 +6795,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="99"/>
+      <c r="D31" s="104"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -6802,7 +6807,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="99"/>
+      <c r="D32" s="104"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -6814,7 +6819,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="99"/>
+      <c r="D33" s="104"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -6826,7 +6831,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="99"/>
+      <c r="D34" s="104"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -6838,7 +6843,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="99"/>
+      <c r="D35" s="104"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -6850,7 +6855,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="99"/>
+      <c r="D36" s="104"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -6862,7 +6867,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="99"/>
+      <c r="D37" s="104"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -6874,7 +6879,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="99"/>
+      <c r="D38" s="104"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -6886,7 +6891,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="99"/>
+      <c r="D39" s="104"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -6898,7 +6903,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="99"/>
+      <c r="D40" s="104"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -6910,7 +6915,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="99"/>
+      <c r="D41" s="104"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -6922,7 +6927,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="99"/>
+      <c r="D42" s="104"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -6934,7 +6939,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="99"/>
+      <c r="D43" s="104"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -6946,7 +6951,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="99"/>
+      <c r="D44" s="104"/>
     </row>
     <row r="52" spans="1:8" ht="27">
       <c r="A52" s="3" t="s">
@@ -6976,7 +6981,7 @@
       <c r="C57" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="H57" s="109" t="s">
+      <c r="H57" s="96" t="s">
         <v>868</v>
       </c>
     </row>
@@ -6988,7 +6993,7 @@
       <c r="E58" s="34"/>
     </row>
     <row r="59" spans="1:8" ht="25">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="97" t="s">
         <v>734</v>
       </c>
       <c r="B59" s="42"/>
@@ -7048,21 +7053,21 @@
       <c r="D68" s="39"/>
     </row>
     <row r="71" spans="1:8" ht="24">
-      <c r="A71" s="108"/>
+      <c r="A71" s="95"/>
     </row>
     <row r="72" spans="1:8" ht="24">
-      <c r="A72" s="108"/>
-      <c r="B72" s="108"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="95"/>
     </row>
     <row r="73" spans="1:8" ht="24">
-      <c r="A73" s="108"/>
+      <c r="A73" s="95"/>
     </row>
     <row r="74" spans="1:8">
       <c r="G74" s="40"/>
       <c r="H74" s="40"/>
     </row>
     <row r="76" spans="1:8" ht="24">
-      <c r="A76" s="108"/>
+      <c r="A76" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7259,7 +7264,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="112" t="s">
+      <c r="B38" s="99" t="s">
         <v>150</v>
       </c>
       <c r="C38" s="30" t="s">
@@ -7270,7 +7275,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="100" t="s">
         <v>151</v>
       </c>
       <c r="C39" s="19" t="s">
@@ -7281,7 +7286,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="100" t="s">
         <v>152</v>
       </c>
       <c r="C40" s="19" t="s">
@@ -7332,10 +7337,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="100" t="s">
+      <c r="C46" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="100"/>
+      <c r="D46" s="105"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -7376,32 +7381,32 @@
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="112" t="s">
+      <c r="B56" s="99" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="113" t="s">
+      <c r="B57" s="100" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="113" t="s">
+      <c r="B58" s="100" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="113" t="s">
+      <c r="B59" s="100" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="113" t="s">
+      <c r="B60" s="100" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="101" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7426,68 +7431,68 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="32">
-      <c r="C68" s="115" t="s">
+      <c r="C68" s="102" t="s">
         <v>1027</v>
       </c>
-      <c r="D68" s="115" t="s">
+      <c r="D68" s="102" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="32">
-      <c r="C69" s="115" t="s">
+      <c r="C69" s="102" t="s">
         <v>1030</v>
       </c>
-      <c r="D69" s="115" t="s">
+      <c r="D69" s="102" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="32">
-      <c r="C70" s="115" t="s">
+      <c r="C70" s="102" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="32">
-      <c r="C71" s="115" t="s">
+      <c r="C71" s="102" t="s">
         <v>1032</v>
       </c>
-      <c r="D71" s="115" t="s">
+      <c r="D71" s="102" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="32">
-      <c r="D72" s="115"/>
+      <c r="D72" s="102"/>
     </row>
     <row r="73" spans="2:4" ht="32">
-      <c r="C73" s="116" t="s">
+      <c r="C73" s="103" t="s">
         <v>1033</v>
       </c>
-      <c r="D73" s="115"/>
+      <c r="D73" s="102"/>
     </row>
     <row r="74" spans="2:4" ht="32">
-      <c r="C74" s="116" t="s">
+      <c r="C74" s="103" t="s">
         <v>1034</v>
       </c>
-      <c r="D74" s="115"/>
+      <c r="D74" s="102"/>
     </row>
     <row r="75" spans="2:4" ht="32">
-      <c r="C75" s="115"/>
-      <c r="D75" s="115"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="102"/>
     </row>
     <row r="76" spans="2:4" ht="32">
-      <c r="C76" s="116" t="s">
+      <c r="C76" s="103" t="s">
         <v>1035</v>
       </c>
-      <c r="D76" s="115"/>
+      <c r="D76" s="102"/>
     </row>
     <row r="77" spans="2:4" ht="32">
-      <c r="C77" s="116" t="s">
+      <c r="C77" s="103" t="s">
         <v>1036</v>
       </c>
-      <c r="D77" s="115"/>
+      <c r="D77" s="102"/>
     </row>
     <row r="78" spans="2:4" ht="32">
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7505,7 +7510,7 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
@@ -7637,7 +7642,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="109" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -7651,7 +7656,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="105"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="58" t="s">
         <v>482</v>
       </c>
@@ -7663,7 +7668,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="109" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -7677,7 +7682,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="105"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
@@ -7689,7 +7694,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="109" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -7703,7 +7708,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="105"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
@@ -7743,7 +7748,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="109" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -7757,7 +7762,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="106"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -7769,7 +7774,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="105"/>
+      <c r="B26" s="110"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -7809,7 +7814,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="106" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -7823,7 +7828,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="102"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
@@ -7835,7 +7840,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="102"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="26" t="s">
         <v>601</v>
       </c>
@@ -7847,7 +7852,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="102"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
@@ -7859,7 +7864,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="102"/>
+      <c r="B39" s="107"/>
       <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
@@ -7871,7 +7876,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="103"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
@@ -7883,7 +7888,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="106" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -7897,7 +7902,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="102"/>
+      <c r="B42" s="107"/>
       <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
@@ -7909,7 +7914,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="102"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="59" t="s">
         <v>603</v>
       </c>
@@ -7924,7 +7929,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="102"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="26" t="s">
         <v>602</v>
       </c>
@@ -7936,7 +7941,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="102"/>
+      <c r="B45" s="107"/>
       <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
@@ -7951,7 +7956,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="103"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
@@ -7964,7 +7969,7 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="101" t="s">
+      <c r="B47" s="106" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -7981,7 +7986,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="102"/>
+      <c r="B48" s="107"/>
       <c r="C48" s="26" t="s">
         <v>272</v>
       </c>
@@ -7994,7 +7999,7 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="102"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="26" t="s">
         <v>275</v>
       </c>
@@ -8009,7 +8014,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="102"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="26" t="s">
         <v>278</v>
       </c>
@@ -8022,7 +8027,7 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="102"/>
+      <c r="B51" s="107"/>
       <c r="C51" s="26" t="s">
         <v>281</v>
       </c>
@@ -8037,7 +8042,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="103"/>
+      <c r="B52" s="108"/>
       <c r="C52" s="26" t="s">
         <v>284</v>
       </c>
@@ -8049,10 +8054,10 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="101" t="s">
+      <c r="B53" s="106" t="s">
         <v>287</v>
       </c>
-      <c r="C53" s="107" t="s">
+      <c r="C53" s="26" t="s">
         <v>288</v>
       </c>
       <c r="D53" s="26" t="s">
@@ -8063,8 +8068,8 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="102"/>
-      <c r="C54" s="107" t="s">
+      <c r="B54" s="107"/>
+      <c r="C54" s="26" t="s">
         <v>291</v>
       </c>
       <c r="D54" s="26" t="s">
@@ -8075,8 +8080,8 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="102"/>
-      <c r="C55" s="107" t="s">
+      <c r="B55" s="107"/>
+      <c r="C55" s="26" t="s">
         <v>294</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -8087,8 +8092,8 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="102"/>
-      <c r="C56" s="107" t="s">
+      <c r="B56" s="107"/>
+      <c r="C56" s="26" t="s">
         <v>297</v>
       </c>
       <c r="D56" s="26" t="s">
@@ -8099,8 +8104,8 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="103"/>
-      <c r="C57" s="107" t="s">
+      <c r="B57" s="108"/>
+      <c r="C57" s="26" t="s">
         <v>300</v>
       </c>
       <c r="D57" s="26" t="s">
@@ -8111,7 +8116,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="101" t="s">
+      <c r="B58" s="106" t="s">
         <v>303</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -8125,7 +8130,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="102"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="26" t="s">
         <v>307</v>
       </c>
@@ -8137,7 +8142,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="102"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="26" t="s">
         <v>310</v>
       </c>
@@ -8149,7 +8154,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="103"/>
+      <c r="B61" s="108"/>
       <c r="C61" s="26" t="s">
         <v>313</v>
       </c>
@@ -11090,7 +11095,7 @@
   </sheetPr>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -11375,7 +11380,7 @@
       <c r="E13" s="64">
         <v>1</v>
       </c>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="89" t="s">
         <v>811</v>
       </c>
     </row>
@@ -11725,7 +11730,7 @@
       <c r="E31" s="64">
         <v>1</v>
       </c>
-      <c r="G31" s="96" t="s">
+      <c r="G31" s="92" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -11746,7 +11751,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="24"/>
-      <c r="H32" s="94" t="s">
+      <c r="H32" s="90" t="s">
         <v>819</v>
       </c>
     </row>
@@ -11767,7 +11772,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="24"/>
-      <c r="H33" s="94" t="s">
+      <c r="H33" s="90" t="s">
         <v>627</v>
       </c>
     </row>
@@ -11788,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="22"/>
-      <c r="H34" s="94" t="s">
+      <c r="H34" s="90" t="s">
         <v>820</v>
       </c>
     </row>
@@ -11809,7 +11814,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="24"/>
-      <c r="H35" s="94" t="s">
+      <c r="H35" s="90" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -11827,7 +11832,7 @@
         <v>759</v>
       </c>
       <c r="E36" s="64"/>
-      <c r="H36" s="95"/>
+      <c r="H36" s="91"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="64">
@@ -11846,7 +11851,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="24"/>
-      <c r="H37" s="95"/>
+      <c r="H37" s="91"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="64">
@@ -12243,7 +12248,7 @@
         <v>291</v>
       </c>
       <c r="G79" s="21"/>
-      <c r="H79" s="97" t="s">
+      <c r="H79" s="93" t="s">
         <v>842</v>
       </c>
     </row>
@@ -12251,7 +12256,7 @@
       <c r="F80" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="H80" s="97" t="s">
+      <c r="H80" s="93" t="s">
         <v>627</v>
       </c>
     </row>
@@ -12259,7 +12264,7 @@
       <c r="F81" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="H81" s="97" t="s">
+      <c r="H81" s="93" t="s">
         <v>843</v>
       </c>
     </row>
@@ -12267,12 +12272,12 @@
       <c r="F82" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="H82" s="97" t="s">
+      <c r="H82" s="93" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="83" spans="6:8">
-      <c r="H83" s="98"/>
+      <c r="H83" s="94"/>
     </row>
     <row r="84" spans="6:8">
       <c r="G84" s="21"/>
@@ -12549,12 +12554,17 @@
   </sheetPr>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="87"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12628,7 +12638,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="111"/>
+      <c r="C13" s="98"/>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" s="46"/>
@@ -12929,213 +12939,245 @@
     <row r="100" spans="2:2">
       <c r="B100"/>
     </row>
-    <row r="140" spans="2:5">
-      <c r="B140" t="s">
+    <row r="140" spans="2:6" ht="27">
+      <c r="B140" s="112" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="141" spans="2:5">
-      <c r="B141"/>
-      <c r="C141" s="89" t="s">
+      <c r="C140" s="112"/>
+      <c r="D140" s="112"/>
+      <c r="E140" s="112"/>
+      <c r="F140" s="112"/>
+    </row>
+    <row r="141" spans="2:6" ht="27">
+      <c r="B141" s="112"/>
+      <c r="C141" s="113" t="s">
         <v>1009</v>
       </c>
-      <c r="D141" s="90" t="s">
+      <c r="D141" s="114" t="s">
         <v>981</v>
       </c>
-      <c r="E141" s="85" t="s">
+      <c r="E141" s="114" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="142" spans="2:5">
-      <c r="B142"/>
-      <c r="C142" s="80" t="s">
+      <c r="F141" s="112"/>
+    </row>
+    <row r="142" spans="2:6" ht="27">
+      <c r="B142" s="112"/>
+      <c r="C142" s="115" t="s">
         <v>1001</v>
       </c>
-      <c r="D142" s="80" t="s">
+      <c r="D142" s="115" t="s">
         <v>983</v>
       </c>
-      <c r="E142" s="80" t="s">
+      <c r="E142" s="115" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143"/>
-      <c r="C143" s="80" t="s">
+      <c r="F142" s="112"/>
+    </row>
+    <row r="143" spans="2:6" ht="27">
+      <c r="B143" s="112"/>
+      <c r="C143" s="115" t="s">
         <v>1002</v>
       </c>
-      <c r="D143" s="80" t="s">
+      <c r="D143" s="115" t="s">
         <v>984</v>
       </c>
-      <c r="E143" s="80" t="s">
+      <c r="E143" s="115" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144"/>
-      <c r="C144" s="80" t="s">
+      <c r="F143" s="112"/>
+    </row>
+    <row r="144" spans="2:6" ht="27">
+      <c r="B144" s="112"/>
+      <c r="C144" s="115" t="s">
         <v>1003</v>
       </c>
-      <c r="D144" s="80" t="s">
+      <c r="D144" s="115" t="s">
         <v>985</v>
       </c>
-      <c r="E144" s="80" t="s">
+      <c r="E144" s="115" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="B145"/>
-      <c r="C145" s="80" t="s">
+      <c r="F144" s="112"/>
+    </row>
+    <row r="145" spans="2:6" ht="27">
+      <c r="B145" s="112"/>
+      <c r="C145" s="115" t="s">
         <v>1004</v>
       </c>
-      <c r="D145" s="80" t="s">
+      <c r="D145" s="115" t="s">
         <v>986</v>
       </c>
-      <c r="E145" s="80" t="s">
+      <c r="E145" s="115" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="146" spans="2:5">
-      <c r="B146"/>
-      <c r="C146" s="80" t="s">
+      <c r="F145" s="112"/>
+    </row>
+    <row r="146" spans="2:6" ht="27">
+      <c r="B146" s="112"/>
+      <c r="C146" s="115" t="s">
         <v>1005</v>
       </c>
-      <c r="D146" s="80" t="s">
+      <c r="D146" s="115" t="s">
         <v>987</v>
       </c>
-      <c r="E146" s="80" t="s">
+      <c r="E146" s="115" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="147" spans="2:5">
-      <c r="B147"/>
-      <c r="C147" s="80" t="s">
+      <c r="F146" s="112"/>
+    </row>
+    <row r="147" spans="2:6" ht="27">
+      <c r="B147" s="112"/>
+      <c r="C147" s="115" t="s">
         <v>1006</v>
       </c>
-      <c r="D147" s="80" t="s">
+      <c r="D147" s="115" t="s">
         <v>988</v>
       </c>
-      <c r="E147" s="80" t="s">
+      <c r="E147" s="115" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148"/>
-      <c r="C148" s="91" t="s">
+      <c r="F147" s="112"/>
+    </row>
+    <row r="148" spans="2:6" ht="27">
+      <c r="B148" s="112"/>
+      <c r="C148" s="116" t="s">
         <v>1013</v>
       </c>
-      <c r="D148" s="80" t="s">
+      <c r="D148" s="115" t="s">
         <v>1014</v>
       </c>
-      <c r="E148" s="92" t="s">
+      <c r="E148" s="117" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="B149"/>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" t="s">
+      <c r="F148" s="112"/>
+    </row>
+    <row r="149" spans="2:6" ht="27">
+      <c r="B149" s="112"/>
+      <c r="C149" s="112"/>
+      <c r="D149" s="112"/>
+      <c r="E149" s="112"/>
+      <c r="F149" s="112"/>
+    </row>
+    <row r="150" spans="2:6" ht="27">
+      <c r="B150" s="112" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="B151"/>
-      <c r="C151" s="89" t="s">
+      <c r="C150" s="112"/>
+      <c r="D150" s="112"/>
+      <c r="E150" s="112"/>
+      <c r="F150" s="112"/>
+    </row>
+    <row r="151" spans="2:6" ht="27">
+      <c r="B151" s="112"/>
+      <c r="C151" s="113" t="s">
         <v>1010</v>
       </c>
-      <c r="D151" s="90" t="s">
+      <c r="D151" s="114" t="s">
         <v>982</v>
       </c>
-      <c r="E151" s="85" t="s">
+      <c r="E151" s="114" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="152" spans="2:5">
-      <c r="B152"/>
-      <c r="C152" s="80" t="s">
+      <c r="F151" s="112"/>
+    </row>
+    <row r="152" spans="2:6" ht="27">
+      <c r="B152" s="112"/>
+      <c r="C152" s="115" t="s">
         <v>995</v>
       </c>
-      <c r="D152" s="80" t="s">
+      <c r="D152" s="115" t="s">
         <v>989</v>
       </c>
-      <c r="E152" s="80" t="s">
+      <c r="E152" s="115" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="B153"/>
-      <c r="C153" s="80" t="s">
+      <c r="F152" s="112"/>
+    </row>
+    <row r="153" spans="2:6" ht="27">
+      <c r="B153" s="112"/>
+      <c r="C153" s="115" t="s">
         <v>996</v>
       </c>
-      <c r="D153" s="80" t="s">
+      <c r="D153" s="115" t="s">
         <v>990</v>
       </c>
-      <c r="E153" s="80" t="s">
+      <c r="E153" s="115" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="154" spans="2:5">
-      <c r="B154"/>
-      <c r="C154" s="80" t="s">
+      <c r="F153" s="112"/>
+    </row>
+    <row r="154" spans="2:6" ht="27">
+      <c r="B154" s="112"/>
+      <c r="C154" s="115" t="s">
         <v>997</v>
       </c>
-      <c r="D154" s="80" t="s">
+      <c r="D154" s="115" t="s">
         <v>991</v>
       </c>
-      <c r="E154" s="80" t="s">
+      <c r="E154" s="115" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="155" spans="2:5">
-      <c r="B155"/>
-      <c r="C155" s="80" t="s">
+      <c r="F154" s="112"/>
+    </row>
+    <row r="155" spans="2:6" ht="27">
+      <c r="B155" s="112"/>
+      <c r="C155" s="115" t="s">
         <v>998</v>
       </c>
-      <c r="D155" s="80" t="s">
+      <c r="D155" s="115" t="s">
         <v>992</v>
       </c>
-      <c r="E155" s="80" t="s">
+      <c r="E155" s="115" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="156" spans="2:5">
-      <c r="B156"/>
-      <c r="C156" s="80" t="s">
+      <c r="F155" s="112"/>
+    </row>
+    <row r="156" spans="2:6" ht="27">
+      <c r="B156" s="112"/>
+      <c r="C156" s="115" t="s">
         <v>999</v>
       </c>
-      <c r="D156" s="80" t="s">
+      <c r="D156" s="115" t="s">
         <v>993</v>
       </c>
-      <c r="E156" s="80" t="s">
+      <c r="E156" s="115" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="B157"/>
-      <c r="C157" s="80" t="s">
+      <c r="F156" s="112"/>
+    </row>
+    <row r="157" spans="2:6" ht="27">
+      <c r="B157" s="112"/>
+      <c r="C157" s="115" t="s">
         <v>1000</v>
       </c>
-      <c r="D157" s="80" t="s">
+      <c r="D157" s="115" t="s">
         <v>994</v>
       </c>
-      <c r="E157" s="80" t="s">
+      <c r="E157" s="115" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="158" spans="2:5">
-      <c r="B158"/>
-      <c r="C158" s="91" t="s">
+      <c r="F157" s="112"/>
+    </row>
+    <row r="158" spans="2:6" ht="27">
+      <c r="B158" s="112"/>
+      <c r="C158" s="116" t="s">
         <v>1015</v>
       </c>
-      <c r="D158" s="80" t="s">
+      <c r="D158" s="115" t="s">
         <v>1016</v>
       </c>
-      <c r="E158" s="92" t="s">
+      <c r="E158" s="117" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159"/>
+      <c r="F158" s="112"/>
+    </row>
+    <row r="159" spans="2:6" ht="27">
+      <c r="B159" s="112"/>
+      <c r="C159" s="112"/>
+      <c r="D159" s="112"/>
+      <c r="E159" s="112"/>
+      <c r="F159" s="112"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Beginner/Slides/Lec_9_10.xlsx
+++ b/Beginner/Slides/Lec_9_10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1C60F3-7A99-204F-BBB7-4347FE5AF0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDF7171-C129-7E4D-8293-B63885C079BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="7" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="1038">
   <si>
     <t>- 9年软件开发经验，擅长数据库、Python、AI</t>
   </si>
@@ -4334,28 +4334,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">GROUP BY </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="3"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>department_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="3"/>
-        <rFont val="Kai Regular"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>统计</t>
     </r>
     <r>
@@ -4472,12 +4450,37 @@
   <si>
     <t>ON a.共同字段 = a.共同字段;</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GROUP BY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>department_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Kai Regular"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Time - short</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="78">
+  <fonts count="75">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4860,29 +4863,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="5" tint="0.39997558519241921"/>
-      <name val="Kai Regular"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="3"/>
-      <name val="Kai Regular"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="3"/>
-      <name val="Kai Regular"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="7" tint="-0.499984740745262"/>
       <name val="Kai Regular"/>
     </font>
@@ -4945,8 +4925,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Kai Regular"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4986,6 +4971,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5064,7 +5055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5198,27 +5189,25 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="75" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5243,7 +5232,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6014,6 +6004,178 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>855869</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>13805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2691846</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>193262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3D348E-7B1A-FB7A-9C7D-B75D107DD4B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="855869" y="1228588"/>
+          <a:ext cx="9994347" cy="3520109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>SELECT department_id, MAX(age) AS max_age</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>FROM students</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>WHERE age &gt; 20 AND</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>department_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> &gt;= 1 AND </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>department_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> &lt;= 2 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>GROUP BY department_id </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>HAVING department_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> &gt;= 1 AND </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>department_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0"/>
+            <a:t> &lt;= 2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -6210,8 +6372,8 @@
       <xdr:row>88</xdr:row>
       <xdr:rowOff>294760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="122" name="Ink 121">
@@ -6230,7 +6392,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="122" name="Ink 121">
@@ -6275,8 +6437,8 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>225760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="146" name="Ink 145">
@@ -6295,7 +6457,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="146" name="Ink 145">
@@ -6340,8 +6502,8 @@
       <xdr:row>101</xdr:row>
       <xdr:rowOff>246640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="202" name="Ink 201">
@@ -6360,7 +6522,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="202" name="Ink 201">
@@ -6405,8 +6567,8 @@
       <xdr:row>110</xdr:row>
       <xdr:rowOff>168520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="210" name="Ink 209">
@@ -6425,7 +6587,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="210" name="Ink 209">
@@ -6470,8 +6632,8 @@
       <xdr:row>110</xdr:row>
       <xdr:rowOff>181840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="235" name="Ink 234">
@@ -6490,7 +6652,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="235" name="Ink 234">
@@ -6535,8 +6697,8 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>92080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="238" name="Ink 237">
@@ -6555,7 +6717,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="238" name="Ink 237">
@@ -6661,8 +6823,8 @@
       <xdr:row>105</xdr:row>
       <xdr:rowOff>223307</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="283" name="Ink 282">
@@ -6681,7 +6843,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="283" name="Ink 282">
@@ -6726,8 +6888,8 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>5987</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="316" name="Ink 315">
@@ -6746,7 +6908,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="316" name="Ink 315">
@@ -6791,8 +6953,8 @@
       <xdr:row>132</xdr:row>
       <xdr:rowOff>165347</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="408" name="Ink 407">
@@ -6811,7 +6973,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="408" name="Ink 407">
@@ -6870,7 +7032,7 @@
       <inkml:brushProperty name="color" value="#CC0066"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">298 11623 24575,'-1'24'0,"-10"34"0,0-8 0,-3 4 0,-5 9 0,-1 3 0,-2 2 0,-1-1 0,3-10 0,1-4 0,-13 27 0,6-16 0,3-15 0,4-12 0,5-5 0,3-10 0,3-7 0,4-6 0,9-8 0,16-8 0,18-5 0,14-6 0,15-3 0,9 0 0,3 2 0,-1 1 0,-8 2 0,-9 2 0,-8 1 0,-9-1 0,-7 5 0,-9 1 0,-6 1 0,-4 1 0,-2 0 0,-3 1 0,-5 1 0,-4 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">298 11731 24575,'-1'25'0,"-10"34"0,0-8 0,-3 3 0,-5 10 0,-1 4 0,-2 1 0,-1-1 0,3-10 0,1-4 0,-13 27 0,6-16 0,3-15 0,4-12 0,5-6 0,3-9 0,3-8 0,4-6 0,9-8 0,16-8 0,18-5 0,14-7 0,15-2 0,9 0 0,3 1 0,-1 2 0,-8 2 0,-9 2 0,-8 0 0,-9 0 0,-7 5 0,-9 1 0,-6 1 0,-4 1 0,-2-1 0,-3 2 0,-5 1 0,-4 1 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11433">7880 5231 24575,'53'0'0,"41"0"0,-14 0 0,9 0 0,-22 0 0,3 0 0,0 0 0,2 0 0,0 0 0,-1 0 0,24 0 0,-7 0 0,-22 0 0,-7 0 0,21 0 0,-39 2 0,-20 3 0,-14-2 0,-3 2 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -7449,8 +7611,8 @@
   </sheetPr>
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7656,7 +7818,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="110" t="s">
+      <c r="D28" s="108" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7670,7 +7832,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="110"/>
+      <c r="D29" s="108"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -7682,7 +7844,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="110"/>
+      <c r="D30" s="108"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -7694,7 +7856,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="110"/>
+      <c r="D31" s="108"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -7706,7 +7868,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="110"/>
+      <c r="D32" s="108"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -7718,7 +7880,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="110"/>
+      <c r="D33" s="108"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -7730,7 +7892,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="110"/>
+      <c r="D34" s="108"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -7742,7 +7904,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="110"/>
+      <c r="D35" s="108"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -7754,7 +7916,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="110"/>
+      <c r="D36" s="108"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -7766,7 +7928,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="110"/>
+      <c r="D37" s="108"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -7778,7 +7940,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="110"/>
+      <c r="D38" s="108"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -7790,7 +7952,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="110"/>
+      <c r="D39" s="108"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -7802,7 +7964,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="110"/>
+      <c r="D40" s="108"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -7814,7 +7976,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="110"/>
+      <c r="D41" s="108"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -7826,7 +7988,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="110"/>
+      <c r="D42" s="108"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -7838,7 +8000,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="110"/>
+      <c r="D43" s="108"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -7850,7 +8012,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="110"/>
+      <c r="D44" s="108"/>
     </row>
     <row r="52" spans="1:8" ht="27">
       <c r="A52" s="3" t="s">
@@ -7880,7 +8042,7 @@
       <c r="C57" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="H57" s="96" t="s">
+      <c r="H57" s="93" t="s">
         <v>868</v>
       </c>
     </row>
@@ -7892,7 +8054,7 @@
       <c r="E58" s="34"/>
     </row>
     <row r="59" spans="1:8" ht="25">
-      <c r="A59" s="97" t="s">
+      <c r="A59" s="116" t="s">
         <v>734</v>
       </c>
       <c r="B59" s="42"/>
@@ -7900,36 +8062,36 @@
     </row>
     <row r="60" spans="1:8" ht="25">
       <c r="A60" s="14" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B60" s="42"/>
       <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:8" ht="25">
-      <c r="A61" s="21" t="s">
-        <v>1019</v>
+      <c r="A61" s="116" t="s">
+        <v>1018</v>
       </c>
       <c r="B61" s="42"/>
       <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:8" ht="23">
-      <c r="A62" s="22" t="s">
-        <v>1020</v>
+      <c r="A62" s="116" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="23">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="24" t="s">
         <v>733</v>
       </c>
       <c r="B63" s="42"/>
     </row>
     <row r="64" spans="1:8" ht="23">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="94" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="25">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="94" t="s">
         <v>865</v>
       </c>
       <c r="E65" s="34"/>
@@ -7952,21 +8114,21 @@
       <c r="D68" s="39"/>
     </row>
     <row r="71" spans="1:8" ht="24">
-      <c r="A71" s="95"/>
+      <c r="A71" s="92"/>
     </row>
     <row r="72" spans="1:8" ht="24">
-      <c r="A72" s="95"/>
-      <c r="B72" s="95"/>
+      <c r="A72" s="92"/>
+      <c r="B72" s="92"/>
     </row>
     <row r="73" spans="1:8" ht="24">
-      <c r="A73" s="95"/>
+      <c r="A73" s="92"/>
     </row>
     <row r="74" spans="1:8">
       <c r="G74" s="40"/>
       <c r="H74" s="40"/>
     </row>
     <row r="76" spans="1:8" ht="24">
-      <c r="A76" s="95"/>
+      <c r="A76" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8163,7 +8325,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="96" t="s">
         <v>150</v>
       </c>
       <c r="C38" s="30" t="s">
@@ -8174,7 +8336,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="97" t="s">
         <v>151</v>
       </c>
       <c r="C39" s="19" t="s">
@@ -8185,7 +8347,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="97" t="s">
         <v>152</v>
       </c>
       <c r="C40" s="19" t="s">
@@ -8236,10 +8398,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="111" t="s">
+      <c r="C46" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="111"/>
+      <c r="D46" s="109"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -8280,32 +8442,32 @@
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="99" t="s">
+      <c r="B56" s="96" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="100" t="s">
+      <c r="B57" s="97" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="100" t="s">
+      <c r="B58" s="97" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="100" t="s">
+      <c r="B59" s="97" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="100" t="s">
+      <c r="B60" s="97" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="101" t="s">
+      <c r="B61" s="98" t="s">
         <v>149</v>
       </c>
     </row>
@@ -8316,82 +8478,82 @@
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="14" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="13" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="32">
+      <c r="C68" s="99" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" ht="32">
-      <c r="C68" s="102" t="s">
+      <c r="D68" s="99" t="s">
         <v>1025</v>
       </c>
-      <c r="D68" s="102" t="s">
+    </row>
+    <row r="69" spans="2:4" ht="32">
+      <c r="C69" s="99" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D69" s="99" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="32">
-      <c r="C69" s="102" t="s">
+    <row r="70" spans="2:4" ht="32">
+      <c r="C70" s="99" t="s">
         <v>1028</v>
       </c>
-      <c r="D69" s="102" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="32">
-      <c r="C70" s="102" t="s">
+    </row>
+    <row r="71" spans="2:4" ht="32">
+      <c r="C71" s="99" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" ht="32">
-      <c r="C71" s="102" t="s">
+      <c r="D71" s="99" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="32">
+      <c r="D72" s="99"/>
+    </row>
+    <row r="73" spans="2:4" ht="32">
+      <c r="C73" s="100" t="s">
         <v>1030</v>
       </c>
-      <c r="D71" s="102" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="32">
-      <c r="D72" s="102"/>
-    </row>
-    <row r="73" spans="2:4" ht="32">
-      <c r="C73" s="103" t="s">
+      <c r="D73" s="99"/>
+    </row>
+    <row r="74" spans="2:4" ht="32">
+      <c r="C74" s="100" t="s">
         <v>1031</v>
       </c>
-      <c r="D73" s="102"/>
-    </row>
-    <row r="74" spans="2:4" ht="32">
-      <c r="C74" s="103" t="s">
+      <c r="D74" s="99"/>
+    </row>
+    <row r="75" spans="2:4" ht="32">
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+    </row>
+    <row r="76" spans="2:4" ht="32">
+      <c r="C76" s="100" t="s">
         <v>1032</v>
       </c>
-      <c r="D74" s="102"/>
-    </row>
-    <row r="75" spans="2:4" ht="32">
-      <c r="C75" s="102"/>
-      <c r="D75" s="102"/>
-    </row>
-    <row r="76" spans="2:4" ht="32">
-      <c r="C76" s="103" t="s">
+      <c r="D76" s="99"/>
+    </row>
+    <row r="77" spans="2:4" ht="32">
+      <c r="C77" s="100" t="s">
         <v>1033</v>
       </c>
-      <c r="D76" s="102"/>
-    </row>
-    <row r="77" spans="2:4" ht="32">
-      <c r="C77" s="103" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D77" s="102"/>
+      <c r="D77" s="99"/>
     </row>
     <row r="78" spans="2:4" ht="32">
-      <c r="C78" s="102"/>
-      <c r="D78" s="102"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8409,7 +8571,9 @@
   </sheetPr>
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
   <cols>
@@ -8541,7 +8705,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="113" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -8555,7 +8719,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="116"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="58" t="s">
         <v>482</v>
       </c>
@@ -8567,7 +8731,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="113" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -8581,7 +8745,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="116"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
@@ -8593,7 +8757,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="113" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -8607,7 +8771,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="116"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
@@ -8647,7 +8811,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="113" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -8661,7 +8825,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="117"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -8673,7 +8837,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="116"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -8713,7 +8877,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="110" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -8727,7 +8891,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="113"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
@@ -8739,7 +8903,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="113"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="26" t="s">
         <v>601</v>
       </c>
@@ -8751,7 +8915,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="113"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
@@ -8763,7 +8927,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="113"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
@@ -8775,7 +8939,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="114"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
@@ -8787,7 +8951,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="110" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -8801,7 +8965,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="113"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
@@ -8813,7 +8977,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="113"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="59" t="s">
         <v>603</v>
       </c>
@@ -8828,7 +8992,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="113"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="26" t="s">
         <v>602</v>
       </c>
@@ -8840,7 +9004,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="113"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
@@ -8855,7 +9019,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="114"/>
+      <c r="B46" s="112"/>
       <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
@@ -8868,7 +9032,7 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="110" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -8885,7 +9049,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="113"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="26" t="s">
         <v>272</v>
       </c>
@@ -8898,7 +9062,7 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="113"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="26" t="s">
         <v>275</v>
       </c>
@@ -8913,7 +9077,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="113"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="26" t="s">
         <v>278</v>
       </c>
@@ -8926,7 +9090,7 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="113"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="26" t="s">
         <v>281</v>
       </c>
@@ -8941,7 +9105,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="114"/>
+      <c r="B52" s="112"/>
       <c r="C52" s="26" t="s">
         <v>284</v>
       </c>
@@ -8953,7 +9117,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="112" t="s">
+      <c r="B53" s="110" t="s">
         <v>287</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -8967,7 +9131,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="113"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="26" t="s">
         <v>291</v>
       </c>
@@ -8979,7 +9143,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="113"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="26" t="s">
         <v>294</v>
       </c>
@@ -8991,7 +9155,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="113"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="26" t="s">
         <v>297</v>
       </c>
@@ -9003,7 +9167,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="114"/>
+      <c r="B57" s="112"/>
       <c r="C57" s="26" t="s">
         <v>300</v>
       </c>
@@ -9015,7 +9179,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="110" t="s">
         <v>303</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -9029,7 +9193,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="113"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="26" t="s">
         <v>307</v>
       </c>
@@ -9041,7 +9205,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="113"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="26" t="s">
         <v>310</v>
       </c>
@@ -9053,7 +9217,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="114"/>
+      <c r="B61" s="112"/>
       <c r="C61" s="26" t="s">
         <v>313</v>
       </c>
@@ -11992,11 +12156,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.83203125" defaultRowHeight="24"/>
@@ -12005,14 +12169,14 @@
     <col min="2" max="2" width="20.1640625" style="63" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="63" customWidth="1"/>
     <col min="4" max="4" width="18" style="63" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="63" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" style="63" customWidth="1"/>
-    <col min="7" max="7" width="54.5" style="63" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="36" style="63" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="63" customWidth="1"/>
     <col min="8" max="8" width="31.83203125" style="66"/>
     <col min="9" max="16384" width="31.83203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="68" t="s">
         <v>751</v>
       </c>
@@ -12036,7 +12200,7 @@
       </c>
       <c r="H1" s="71"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="64">
         <v>3001</v>
       </c>
@@ -12060,7 +12224,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="64">
         <v>3002</v>
       </c>
@@ -12084,7 +12248,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="64">
         <v>3003</v>
       </c>
@@ -12104,7 +12268,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="64">
         <v>3004</v>
       </c>
@@ -12124,7 +12288,7 @@
       <c r="G5" s="65"/>
       <c r="H5" s="71"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="64">
         <v>3005</v>
       </c>
@@ -12143,7 +12307,7 @@
       <c r="G6" s="70"/>
       <c r="H6" s="71"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="64">
         <v>3006</v>
       </c>
@@ -12165,7 +12329,7 @@
       </c>
       <c r="H7" s="74"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="64">
         <v>3007</v>
       </c>
@@ -12186,7 +12350,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="64">
         <v>3008</v>
       </c>
@@ -12205,7 +12369,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="64">
         <v>3009</v>
       </c>
@@ -12227,7 +12391,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="64">
         <v>3010</v>
       </c>
@@ -12246,7 +12410,7 @@
       <c r="G11" s="65"/>
       <c r="H11" s="74"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="64">
         <v>3011</v>
       </c>
@@ -12263,7 +12427,7 @@
       <c r="G12" s="70"/>
       <c r="H12" s="74"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="64">
         <v>3012</v>
       </c>
@@ -12279,11 +12443,11 @@
       <c r="E13" s="64">
         <v>1</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="117" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="64">
         <v>3013</v>
       </c>
@@ -12304,7 +12468,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="64">
         <v>3014</v>
       </c>
@@ -12324,8 +12488,11 @@
       <c r="H15" s="67" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="63" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="64">
         <v>3015</v>
       </c>
@@ -12629,8 +12796,8 @@
       <c r="E31" s="64">
         <v>1</v>
       </c>
-      <c r="G31" s="92" t="s">
-        <v>1017</v>
+      <c r="G31" s="89" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -12649,8 +12816,8 @@
       <c r="E32" s="64">
         <v>3</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="90" t="s">
+      <c r="G32" s="14"/>
+      <c r="H32" s="46" t="s">
         <v>819</v>
       </c>
     </row>
@@ -12670,8 +12837,8 @@
       <c r="E33" s="64">
         <v>2</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="90" t="s">
+      <c r="G33" s="14"/>
+      <c r="H33" s="46" t="s">
         <v>627</v>
       </c>
     </row>
@@ -12691,8 +12858,8 @@
       <c r="E34" s="64">
         <v>1</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="90" t="s">
+      <c r="G34" s="13"/>
+      <c r="H34" s="46" t="s">
         <v>820</v>
       </c>
     </row>
@@ -12712,9 +12879,9 @@
       <c r="E35" s="64">
         <v>3</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="90" t="s">
-        <v>1016</v>
+      <c r="G35" s="14"/>
+      <c r="H35" s="46" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -12731,7 +12898,7 @@
         <v>759</v>
       </c>
       <c r="E36" s="64"/>
-      <c r="H36" s="91"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="64">
@@ -12749,8 +12916,8 @@
       <c r="E37" s="64">
         <v>2</v>
       </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="91"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="64">
@@ -13147,7 +13314,7 @@
         <v>291</v>
       </c>
       <c r="G79" s="21"/>
-      <c r="H79" s="93" t="s">
+      <c r="H79" s="90" t="s">
         <v>842</v>
       </c>
     </row>
@@ -13155,7 +13322,7 @@
       <c r="F80" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="H80" s="93" t="s">
+      <c r="H80" s="90" t="s">
         <v>627</v>
       </c>
     </row>
@@ -13163,7 +13330,7 @@
       <c r="F81" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="H81" s="93" t="s">
+      <c r="H81" s="90" t="s">
         <v>843</v>
       </c>
     </row>
@@ -13171,12 +13338,12 @@
       <c r="F82" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="H82" s="93" t="s">
+      <c r="H82" s="90" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="83" spans="6:8">
-      <c r="H83" s="94"/>
+      <c r="H83" s="91"/>
     </row>
     <row r="84" spans="6:8">
       <c r="G84" s="21"/>
@@ -13443,6 +13610,7 @@
   <autoFilter ref="A1:E54" xr:uid="{EE6A4569-7AEF-904E-A35E-2FEE8FCAFC15}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13453,8 +13621,8 @@
   </sheetPr>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -13530,14 +13698,14 @@
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="46" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H12" s="88" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="98"/>
+      <c r="C13" s="95"/>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" s="46"/>
@@ -13582,7 +13750,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="13"/>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="107" t="s">
         <v>950</v>
       </c>
     </row>
@@ -13646,7 +13814,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="14"/>
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="107" t="s">
         <v>951</v>
       </c>
     </row>
@@ -13708,7 +13876,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="14"/>
-      <c r="C49" s="118" t="s">
+      <c r="C49" s="107" t="s">
         <v>953</v>
       </c>
     </row>
@@ -13766,7 +13934,7 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="C63" s="118" t="s">
+      <c r="C63" s="107" t="s">
         <v>955</v>
       </c>
     </row>
@@ -13811,13 +13979,13 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="C74" s="118" t="s">
-        <v>1035</v>
+      <c r="C74" s="107" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="C75" s="46" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -13839,244 +14007,244 @@
       <c r="B100"/>
     </row>
     <row r="140" spans="2:6" ht="27">
-      <c r="B140" s="104" t="s">
+      <c r="B140" s="101" t="s">
         <v>1005</v>
       </c>
-      <c r="C140" s="104"/>
-      <c r="D140" s="104"/>
-      <c r="E140" s="104"/>
-      <c r="F140" s="104"/>
+      <c r="C140" s="101"/>
+      <c r="D140" s="101"/>
+      <c r="E140" s="101"/>
+      <c r="F140" s="101"/>
     </row>
     <row r="141" spans="2:6" ht="27">
-      <c r="B141" s="104"/>
-      <c r="C141" s="105" t="s">
+      <c r="B141" s="101"/>
+      <c r="C141" s="102" t="s">
         <v>1007</v>
       </c>
-      <c r="D141" s="106" t="s">
+      <c r="D141" s="103" t="s">
         <v>979</v>
       </c>
-      <c r="E141" s="106" t="s">
+      <c r="E141" s="103" t="s">
         <v>1009</v>
       </c>
-      <c r="F141" s="104"/>
+      <c r="F141" s="101"/>
     </row>
     <row r="142" spans="2:6" ht="27">
-      <c r="B142" s="104"/>
-      <c r="C142" s="107" t="s">
+      <c r="B142" s="101"/>
+      <c r="C142" s="104" t="s">
         <v>999</v>
       </c>
-      <c r="D142" s="107" t="s">
+      <c r="D142" s="104" t="s">
         <v>981</v>
       </c>
-      <c r="E142" s="107" t="s">
+      <c r="E142" s="104" t="s">
         <v>993</v>
       </c>
-      <c r="F142" s="104"/>
+      <c r="F142" s="101"/>
     </row>
     <row r="143" spans="2:6" ht="27">
-      <c r="B143" s="104"/>
-      <c r="C143" s="107" t="s">
+      <c r="B143" s="101"/>
+      <c r="C143" s="104" t="s">
         <v>1000</v>
       </c>
-      <c r="D143" s="107" t="s">
+      <c r="D143" s="104" t="s">
         <v>982</v>
       </c>
-      <c r="E143" s="107" t="s">
+      <c r="E143" s="104" t="s">
         <v>994</v>
       </c>
-      <c r="F143" s="104"/>
+      <c r="F143" s="101"/>
     </row>
     <row r="144" spans="2:6" ht="27">
-      <c r="B144" s="104"/>
-      <c r="C144" s="107" t="s">
+      <c r="B144" s="101"/>
+      <c r="C144" s="104" t="s">
         <v>1001</v>
       </c>
-      <c r="D144" s="107" t="s">
+      <c r="D144" s="104" t="s">
         <v>983</v>
       </c>
-      <c r="E144" s="107" t="s">
+      <c r="E144" s="104" t="s">
         <v>995</v>
       </c>
-      <c r="F144" s="104"/>
+      <c r="F144" s="101"/>
     </row>
     <row r="145" spans="2:6" ht="27">
-      <c r="B145" s="104"/>
-      <c r="C145" s="107" t="s">
+      <c r="B145" s="101"/>
+      <c r="C145" s="104" t="s">
         <v>1002</v>
       </c>
-      <c r="D145" s="107" t="s">
+      <c r="D145" s="104" t="s">
         <v>984</v>
       </c>
-      <c r="E145" s="107" t="s">
+      <c r="E145" s="104" t="s">
         <v>996</v>
       </c>
-      <c r="F145" s="104"/>
+      <c r="F145" s="101"/>
     </row>
     <row r="146" spans="2:6" ht="27">
-      <c r="B146" s="104"/>
-      <c r="C146" s="107" t="s">
+      <c r="B146" s="101"/>
+      <c r="C146" s="104" t="s">
         <v>1003</v>
       </c>
-      <c r="D146" s="107" t="s">
+      <c r="D146" s="104" t="s">
         <v>985</v>
       </c>
-      <c r="E146" s="107" t="s">
+      <c r="E146" s="104" t="s">
         <v>997</v>
       </c>
-      <c r="F146" s="104"/>
+      <c r="F146" s="101"/>
     </row>
     <row r="147" spans="2:6" ht="27">
-      <c r="B147" s="104"/>
-      <c r="C147" s="107" t="s">
+      <c r="B147" s="101"/>
+      <c r="C147" s="104" t="s">
         <v>1004</v>
       </c>
-      <c r="D147" s="107" t="s">
+      <c r="D147" s="104" t="s">
         <v>986</v>
       </c>
-      <c r="E147" s="107" t="s">
+      <c r="E147" s="104" t="s">
         <v>998</v>
       </c>
-      <c r="F147" s="104"/>
+      <c r="F147" s="101"/>
     </row>
     <row r="148" spans="2:6" ht="27">
-      <c r="B148" s="104"/>
-      <c r="C148" s="108" t="s">
+      <c r="B148" s="101"/>
+      <c r="C148" s="105" t="s">
         <v>1011</v>
       </c>
-      <c r="D148" s="107" t="s">
+      <c r="D148" s="104" t="s">
         <v>1012</v>
       </c>
-      <c r="E148" s="109" t="s">
+      <c r="E148" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="F148" s="104"/>
+      <c r="F148" s="101"/>
     </row>
     <row r="149" spans="2:6" ht="27">
-      <c r="B149" s="104"/>
-      <c r="C149" s="104"/>
-      <c r="D149" s="104"/>
-      <c r="E149" s="104"/>
-      <c r="F149" s="104"/>
+      <c r="B149" s="101"/>
+      <c r="C149" s="101"/>
+      <c r="D149" s="101"/>
+      <c r="E149" s="101"/>
+      <c r="F149" s="101"/>
     </row>
     <row r="150" spans="2:6" ht="27">
-      <c r="B150" s="104" t="s">
+      <c r="B150" s="101" t="s">
         <v>1006</v>
       </c>
-      <c r="C150" s="104"/>
-      <c r="D150" s="104"/>
-      <c r="E150" s="104"/>
-      <c r="F150" s="104"/>
+      <c r="C150" s="101"/>
+      <c r="D150" s="101"/>
+      <c r="E150" s="101"/>
+      <c r="F150" s="101"/>
     </row>
     <row r="151" spans="2:6" ht="27">
-      <c r="B151" s="104"/>
-      <c r="C151" s="105" t="s">
+      <c r="B151" s="101"/>
+      <c r="C151" s="102" t="s">
         <v>1008</v>
       </c>
-      <c r="D151" s="106" t="s">
+      <c r="D151" s="103" t="s">
         <v>980</v>
       </c>
-      <c r="E151" s="106" t="s">
+      <c r="E151" s="103" t="s">
         <v>1010</v>
       </c>
-      <c r="F151" s="104"/>
+      <c r="F151" s="101"/>
     </row>
     <row r="152" spans="2:6" ht="27">
-      <c r="B152" s="104"/>
-      <c r="C152" s="107" t="s">
+      <c r="B152" s="101"/>
+      <c r="C152" s="104" t="s">
         <v>993</v>
       </c>
-      <c r="D152" s="107" t="s">
+      <c r="D152" s="104" t="s">
         <v>987</v>
       </c>
-      <c r="E152" s="107" t="s">
+      <c r="E152" s="104" t="s">
         <v>999</v>
       </c>
-      <c r="F152" s="104"/>
+      <c r="F152" s="101"/>
     </row>
     <row r="153" spans="2:6" ht="27">
-      <c r="B153" s="104"/>
-      <c r="C153" s="107" t="s">
+      <c r="B153" s="101"/>
+      <c r="C153" s="104" t="s">
         <v>994</v>
       </c>
-      <c r="D153" s="107" t="s">
+      <c r="D153" s="104" t="s">
         <v>988</v>
       </c>
-      <c r="E153" s="107" t="s">
+      <c r="E153" s="104" t="s">
         <v>1000</v>
       </c>
-      <c r="F153" s="104"/>
+      <c r="F153" s="101"/>
     </row>
     <row r="154" spans="2:6" ht="27">
-      <c r="B154" s="104"/>
-      <c r="C154" s="107" t="s">
+      <c r="B154" s="101"/>
+      <c r="C154" s="104" t="s">
         <v>995</v>
       </c>
-      <c r="D154" s="107" t="s">
+      <c r="D154" s="104" t="s">
         <v>989</v>
       </c>
-      <c r="E154" s="107" t="s">
+      <c r="E154" s="104" t="s">
         <v>1001</v>
       </c>
-      <c r="F154" s="104"/>
+      <c r="F154" s="101"/>
     </row>
     <row r="155" spans="2:6" ht="27">
-      <c r="B155" s="104"/>
-      <c r="C155" s="107" t="s">
+      <c r="B155" s="101"/>
+      <c r="C155" s="104" t="s">
         <v>996</v>
       </c>
-      <c r="D155" s="107" t="s">
+      <c r="D155" s="104" t="s">
         <v>990</v>
       </c>
-      <c r="E155" s="107" t="s">
+      <c r="E155" s="104" t="s">
         <v>1002</v>
       </c>
-      <c r="F155" s="104"/>
+      <c r="F155" s="101"/>
     </row>
     <row r="156" spans="2:6" ht="27">
-      <c r="B156" s="104"/>
-      <c r="C156" s="107" t="s">
+      <c r="B156" s="101"/>
+      <c r="C156" s="104" t="s">
         <v>997</v>
       </c>
-      <c r="D156" s="107" t="s">
+      <c r="D156" s="104" t="s">
         <v>991</v>
       </c>
-      <c r="E156" s="107" t="s">
+      <c r="E156" s="104" t="s">
         <v>1003</v>
       </c>
-      <c r="F156" s="104"/>
+      <c r="F156" s="101"/>
     </row>
     <row r="157" spans="2:6" ht="27">
-      <c r="B157" s="104"/>
-      <c r="C157" s="107" t="s">
+      <c r="B157" s="101"/>
+      <c r="C157" s="104" t="s">
         <v>998</v>
       </c>
-      <c r="D157" s="107" t="s">
+      <c r="D157" s="104" t="s">
         <v>992</v>
       </c>
-      <c r="E157" s="107" t="s">
+      <c r="E157" s="104" t="s">
         <v>1004</v>
       </c>
-      <c r="F157" s="104"/>
+      <c r="F157" s="101"/>
     </row>
     <row r="158" spans="2:6" ht="27">
-      <c r="B158" s="104"/>
-      <c r="C158" s="108" t="s">
+      <c r="B158" s="101"/>
+      <c r="C158" s="105" t="s">
         <v>1013</v>
       </c>
-      <c r="D158" s="107" t="s">
+      <c r="D158" s="104" t="s">
         <v>1014</v>
       </c>
-      <c r="E158" s="109" t="s">
+      <c r="E158" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="F158" s="104"/>
+      <c r="F158" s="101"/>
     </row>
     <row r="159" spans="2:6" ht="27">
-      <c r="B159" s="104"/>
-      <c r="C159" s="104"/>
-      <c r="D159" s="104"/>
-      <c r="E159" s="104"/>
-      <c r="F159" s="104"/>
+      <c r="B159" s="101"/>
+      <c r="C159" s="101"/>
+      <c r="D159" s="101"/>
+      <c r="E159" s="101"/>
+      <c r="F159" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Beginner/Slides/Lec_9_10.xlsx
+++ b/Beginner/Slides/Lec_9_10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/Lectures/SQL/Beginner/Slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDF7171-C129-7E4D-8293-B63885C079BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B955BDF7-ACA6-A649-98E1-58FFBE63F9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="7" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{B01DC677-87C8-C645-902B-49FC9EAA203F}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1037">
   <si>
     <t>- 9年软件开发经验，擅长数据库、Python、AI</t>
   </si>
@@ -2895,9 +2895,6 @@
       </rPr>
       <t>COUNT(*) AS student_count</t>
     </r>
-  </si>
-  <si>
-    <t>DDL</t>
   </si>
   <si>
     <t>department_name</t>
@@ -4887,11 +4884,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="5"/>
-      <name val="Kai Regular"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="8"/>
       <name val="Kai Regular"/>
@@ -4926,6 +4918,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Kai Regular"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Kai Regular"/>
@@ -5195,19 +5193,20 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="70" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5233,7 +5232,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6006,16 +6004,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>855869</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>13805</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1187173</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>262284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2691846</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>193262</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2029239</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138046</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6030,8 +6028,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="855869" y="1228588"/>
-          <a:ext cx="9994347" cy="3520109"/>
+          <a:off x="9345543" y="3299241"/>
+          <a:ext cx="8751957" cy="3520109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7611,8 +7609,8 @@
   </sheetPr>
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7818,7 +7816,7 @@
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="108" t="s">
+      <c r="D28" s="109" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7832,7 +7830,7 @@
       <c r="C29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="108"/>
+      <c r="D29" s="109"/>
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="10" t="s">
@@ -7844,7 +7842,7 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="108"/>
+      <c r="D30" s="109"/>
     </row>
     <row r="31" spans="1:7" ht="30">
       <c r="A31" s="10" t="s">
@@ -7856,7 +7854,7 @@
       <c r="C31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="108"/>
+      <c r="D31" s="109"/>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="10" t="s">
@@ -7868,7 +7866,7 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="108"/>
+      <c r="D32" s="109"/>
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="10" t="s">
@@ -7880,7 +7878,7 @@
       <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="108"/>
+      <c r="D33" s="109"/>
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="10" t="s">
@@ -7892,7 +7890,7 @@
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="108"/>
+      <c r="D34" s="109"/>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="10" t="s">
@@ -7904,7 +7902,7 @@
       <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="108"/>
+      <c r="D35" s="109"/>
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="10" t="s">
@@ -7916,7 +7914,7 @@
       <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="108"/>
+      <c r="D36" s="109"/>
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="10" t="s">
@@ -7928,7 +7926,7 @@
       <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="108"/>
+      <c r="D37" s="109"/>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="10" t="s">
@@ -7940,7 +7938,7 @@
       <c r="C38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="108"/>
+      <c r="D38" s="109"/>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="10" t="s">
@@ -7952,7 +7950,7 @@
       <c r="C39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="108"/>
+      <c r="D39" s="109"/>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="10" t="s">
@@ -7964,7 +7962,7 @@
       <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="108"/>
+      <c r="D40" s="109"/>
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="10" t="s">
@@ -7976,7 +7974,7 @@
       <c r="C41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="108"/>
+      <c r="D41" s="109"/>
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="10" t="s">
@@ -7988,7 +7986,7 @@
       <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="108"/>
+      <c r="D42" s="109"/>
     </row>
     <row r="43" spans="1:4" ht="30">
       <c r="A43" s="10" t="s">
@@ -8000,7 +7998,7 @@
       <c r="C43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="108"/>
+      <c r="D43" s="109"/>
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="10" t="s">
@@ -8012,7 +8010,7 @@
       <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="108"/>
+      <c r="D44" s="109"/>
     </row>
     <row r="52" spans="1:8" ht="27">
       <c r="A52" s="3" t="s">
@@ -8042,9 +8040,7 @@
       <c r="C57" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="H57" s="93" t="s">
-        <v>868</v>
-      </c>
+      <c r="H57" s="93"/>
     </row>
     <row r="58" spans="1:8" ht="25">
       <c r="A58" s="14" t="s">
@@ -8054,7 +8050,7 @@
       <c r="E58" s="34"/>
     </row>
     <row r="59" spans="1:8" ht="25">
-      <c r="A59" s="116" t="s">
+      <c r="A59" s="107" t="s">
         <v>734</v>
       </c>
       <c r="B59" s="42"/>
@@ -8062,36 +8058,36 @@
     </row>
     <row r="60" spans="1:8" ht="25">
       <c r="A60" s="14" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B60" s="42"/>
       <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:8" ht="25">
-      <c r="A61" s="116" t="s">
-        <v>1018</v>
+      <c r="A61" s="117" t="s">
+        <v>1017</v>
       </c>
       <c r="B61" s="42"/>
       <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:8" ht="23">
-      <c r="A62" s="116" t="s">
-        <v>1019</v>
+      <c r="A62" s="107" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="23">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="107" t="s">
         <v>733</v>
       </c>
       <c r="B63" s="42"/>
     </row>
     <row r="64" spans="1:8" ht="23">
-      <c r="A64" s="94" t="s">
+      <c r="A64" s="117" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="25">
-      <c r="A65" s="94" t="s">
+      <c r="A65" s="117" t="s">
         <v>865</v>
       </c>
       <c r="E65" s="34"/>
@@ -8325,7 +8321,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="95" t="s">
         <v>150</v>
       </c>
       <c r="C38" s="30" t="s">
@@ -8336,7 +8332,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="96" t="s">
         <v>151</v>
       </c>
       <c r="C39" s="19" t="s">
@@ -8347,7 +8343,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="96" t="s">
         <v>152</v>
       </c>
       <c r="C40" s="19" t="s">
@@ -8398,10 +8394,10 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="D46" s="109"/>
+      <c r="D46" s="110"/>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="22" t="s">
@@ -8442,32 +8438,32 @@
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="95" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="97" t="s">
+      <c r="B57" s="96" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="97" t="s">
+      <c r="B58" s="96" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="97" t="s">
+      <c r="B59" s="96" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="97" t="s">
+      <c r="B60" s="96" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="98" t="s">
+      <c r="B61" s="97" t="s">
         <v>149</v>
       </c>
     </row>
@@ -8478,82 +8474,82 @@
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="14" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="13" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="32">
+      <c r="C68" s="98" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" ht="32">
-      <c r="C68" s="99" t="s">
+      <c r="D68" s="98" t="s">
         <v>1024</v>
       </c>
-      <c r="D68" s="99" t="s">
+    </row>
+    <row r="69" spans="2:4" ht="32">
+      <c r="C69" s="98" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D69" s="98" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="32">
-      <c r="C69" s="99" t="s">
+    <row r="70" spans="2:4" ht="32">
+      <c r="C70" s="98" t="s">
         <v>1027</v>
       </c>
-      <c r="D69" s="99" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="32">
-      <c r="C70" s="99" t="s">
+    </row>
+    <row r="71" spans="2:4" ht="32">
+      <c r="C71" s="98" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" ht="32">
-      <c r="C71" s="99" t="s">
+      <c r="D71" s="98" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="32">
+      <c r="D72" s="98"/>
+    </row>
+    <row r="73" spans="2:4" ht="32">
+      <c r="C73" s="99" t="s">
         <v>1029</v>
       </c>
-      <c r="D71" s="99" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="32">
-      <c r="D72" s="99"/>
-    </row>
-    <row r="73" spans="2:4" ht="32">
-      <c r="C73" s="100" t="s">
+      <c r="D73" s="98"/>
+    </row>
+    <row r="74" spans="2:4" ht="32">
+      <c r="C74" s="99" t="s">
         <v>1030</v>
       </c>
-      <c r="D73" s="99"/>
-    </row>
-    <row r="74" spans="2:4" ht="32">
-      <c r="C74" s="100" t="s">
+      <c r="D74" s="98"/>
+    </row>
+    <row r="75" spans="2:4" ht="32">
+      <c r="C75" s="98"/>
+      <c r="D75" s="98"/>
+    </row>
+    <row r="76" spans="2:4" ht="32">
+      <c r="C76" s="99" t="s">
         <v>1031</v>
       </c>
-      <c r="D74" s="99"/>
-    </row>
-    <row r="75" spans="2:4" ht="32">
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-    </row>
-    <row r="76" spans="2:4" ht="32">
-      <c r="C76" s="100" t="s">
+      <c r="D76" s="98"/>
+    </row>
+    <row r="77" spans="2:4" ht="32">
+      <c r="C77" s="99" t="s">
         <v>1032</v>
       </c>
-      <c r="D76" s="99"/>
-    </row>
-    <row r="77" spans="2:4" ht="32">
-      <c r="C77" s="100" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D77" s="99"/>
+      <c r="D77" s="98"/>
     </row>
     <row r="78" spans="2:4" ht="32">
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8705,7 +8701,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="114" t="s">
         <v>200</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -8719,7 +8715,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="B17" s="114"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="58" t="s">
         <v>482</v>
       </c>
@@ -8731,7 +8727,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="114" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -8745,7 +8741,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="114"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="26" t="s">
         <v>209</v>
       </c>
@@ -8757,7 +8753,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="114" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -8771,7 +8767,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="114"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="26" t="s">
         <v>216</v>
       </c>
@@ -8811,7 +8807,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="114" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -8825,7 +8821,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="115"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="26" t="s">
         <v>229</v>
       </c>
@@ -8837,7 +8833,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="114"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="26" t="s">
         <v>232</v>
       </c>
@@ -8877,7 +8873,7 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="111" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -8891,7 +8887,7 @@
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="111"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
@@ -8903,7 +8899,7 @@
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="111"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="26" t="s">
         <v>601</v>
       </c>
@@ -8915,7 +8911,7 @@
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="111"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="26" t="s">
         <v>248</v>
       </c>
@@ -8927,7 +8923,7 @@
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="111"/>
+      <c r="B39" s="112"/>
       <c r="C39" s="26" t="s">
         <v>250</v>
       </c>
@@ -8939,7 +8935,7 @@
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="112"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="26" t="s">
         <v>252</v>
       </c>
@@ -8951,7 +8947,7 @@
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="111" t="s">
         <v>255</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -8965,7 +8961,7 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="111"/>
+      <c r="B42" s="112"/>
       <c r="C42" s="26" t="s">
         <v>259</v>
       </c>
@@ -8977,7 +8973,7 @@
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="111"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="59" t="s">
         <v>603</v>
       </c>
@@ -8992,7 +8988,7 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="111"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="26" t="s">
         <v>602</v>
       </c>
@@ -9004,7 +9000,7 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="111"/>
+      <c r="B45" s="112"/>
       <c r="C45" s="26" t="s">
         <v>264</v>
       </c>
@@ -9019,7 +9015,7 @@
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="112"/>
+      <c r="B46" s="113"/>
       <c r="C46" s="26" t="s">
         <v>266</v>
       </c>
@@ -9032,7 +9028,7 @@
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="111" t="s">
         <v>268</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -9049,7 +9045,7 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="111"/>
+      <c r="B48" s="112"/>
       <c r="C48" s="26" t="s">
         <v>272</v>
       </c>
@@ -9062,7 +9058,7 @@
       <c r="L48" s="46"/>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="111"/>
+      <c r="B49" s="112"/>
       <c r="C49" s="26" t="s">
         <v>275</v>
       </c>
@@ -9077,7 +9073,7 @@
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="111"/>
+      <c r="B50" s="112"/>
       <c r="C50" s="26" t="s">
         <v>278</v>
       </c>
@@ -9090,7 +9086,7 @@
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="111"/>
+      <c r="B51" s="112"/>
       <c r="C51" s="26" t="s">
         <v>281</v>
       </c>
@@ -9105,7 +9101,7 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="112"/>
+      <c r="B52" s="113"/>
       <c r="C52" s="26" t="s">
         <v>284</v>
       </c>
@@ -9117,7 +9113,7 @@
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="111" t="s">
         <v>287</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -9131,7 +9127,7 @@
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="111"/>
+      <c r="B54" s="112"/>
       <c r="C54" s="26" t="s">
         <v>291</v>
       </c>
@@ -9143,7 +9139,7 @@
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="111"/>
+      <c r="B55" s="112"/>
       <c r="C55" s="26" t="s">
         <v>294</v>
       </c>
@@ -9155,7 +9151,7 @@
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="111"/>
+      <c r="B56" s="112"/>
       <c r="C56" s="26" t="s">
         <v>297</v>
       </c>
@@ -9167,7 +9163,7 @@
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="112"/>
+      <c r="B57" s="113"/>
       <c r="C57" s="26" t="s">
         <v>300</v>
       </c>
@@ -9179,7 +9175,7 @@
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="110" t="s">
+      <c r="B58" s="111" t="s">
         <v>303</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -9193,7 +9189,7 @@
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="111"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="26" t="s">
         <v>307</v>
       </c>
@@ -9205,7 +9201,7 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="111"/>
+      <c r="B60" s="112"/>
       <c r="C60" s="26" t="s">
         <v>310</v>
       </c>
@@ -9217,7 +9213,7 @@
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="112"/>
+      <c r="B61" s="113"/>
       <c r="C61" s="26" t="s">
         <v>313</v>
       </c>
@@ -12160,7 +12156,7 @@
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.83203125" defaultRowHeight="24"/>
@@ -12325,7 +12321,7 @@
       </c>
       <c r="F7" s="76"/>
       <c r="G7" s="69" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H7" s="74"/>
     </row>
@@ -12443,7 +12439,7 @@
       <c r="E13" s="64">
         <v>1</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="108" t="s">
         <v>811</v>
       </c>
     </row>
@@ -12489,7 +12485,7 @@
         <v>637</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -12797,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="89" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -12881,7 +12877,7 @@
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="46" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -13621,9 +13617,7 @@
   </sheetPr>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView zoomScale="118" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
@@ -13636,7 +13630,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13647,7 +13641,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -13656,10 +13650,10 @@
     <row r="6" spans="1:8" ht="23">
       <c r="A6" s="13"/>
       <c r="B6" s="47" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23">
@@ -13668,59 +13662,59 @@
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="47" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H9" s="88" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" s="46" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H10" s="88" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11" s="46" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H11" s="88" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="46" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H12" s="88" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="95"/>
+      <c r="C13" s="94"/>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" s="46"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="47" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -13729,35 +13723,35 @@
     <row r="20" spans="1:8" ht="23">
       <c r="A20" s="14"/>
       <c r="B20" s="47" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="23">
       <c r="A21" s="13"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H21" s="88" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="14"/>
       <c r="C22" s="46" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="13"/>
-      <c r="C23" s="107" t="s">
-        <v>950</v>
+      <c r="C23" s="106" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="14"/>
       <c r="C24" s="46" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -13771,7 +13765,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="13" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -13780,10 +13774,10 @@
     <row r="30" spans="1:8" ht="23">
       <c r="A30" s="13"/>
       <c r="B30" s="47" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="23">
@@ -13793,34 +13787,34 @@
     <row r="32" spans="1:8" ht="23">
       <c r="A32" s="14"/>
       <c r="B32" s="47" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="23">
       <c r="A33" s="13"/>
       <c r="B33" s="46"/>
       <c r="C33" s="46" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H33" s="88" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="14"/>
       <c r="C34" s="46" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="14"/>
-      <c r="C35" s="107" t="s">
-        <v>951</v>
+      <c r="C35" s="106" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="C36" s="46" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -13828,12 +13822,12 @@
     </row>
     <row r="39" spans="1:8">
       <c r="B39" s="86" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="13" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -13842,10 +13836,10 @@
     <row r="44" spans="1:8" ht="23">
       <c r="A44" s="13"/>
       <c r="B44" s="47" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="23">
@@ -13855,34 +13849,34 @@
     <row r="46" spans="1:8" ht="23">
       <c r="A46" s="14"/>
       <c r="B46" s="47" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="23">
       <c r="A47" s="13"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H47" s="88" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="14"/>
       <c r="C48" s="46" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="14"/>
-      <c r="C49" s="107" t="s">
-        <v>953</v>
+      <c r="C49" s="106" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="C50" s="46" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -13890,12 +13884,12 @@
     </row>
     <row r="53" spans="1:8">
       <c r="B53" s="86" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -13904,10 +13898,10 @@
     <row r="58" spans="1:8" ht="23">
       <c r="A58" s="13"/>
       <c r="B58" s="47" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="23">
@@ -13916,31 +13910,31 @@
     </row>
     <row r="60" spans="1:8">
       <c r="B60" s="47" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" s="46"/>
       <c r="C61" s="46" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H61" s="88" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="C62" s="46" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="C63" s="107" t="s">
-        <v>955</v>
+      <c r="C63" s="106" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="13" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -13949,10 +13943,10 @@
     <row r="69" spans="1:8" ht="23">
       <c r="A69" s="13"/>
       <c r="B69" s="47" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C69" s="46" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="23">
@@ -13961,31 +13955,31 @@
     </row>
     <row r="71" spans="1:8">
       <c r="B71" s="47" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" s="46"/>
       <c r="C72" s="46" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H72" s="88" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="C73" s="46" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="C74" s="107" t="s">
-        <v>1034</v>
+      <c r="C74" s="106" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="C75" s="46" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -14007,244 +14001,244 @@
       <c r="B100"/>
     </row>
     <row r="140" spans="2:6" ht="27">
-      <c r="B140" s="101" t="s">
+      <c r="B140" s="100" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C140" s="100"/>
+      <c r="D140" s="100"/>
+      <c r="E140" s="100"/>
+      <c r="F140" s="100"/>
+    </row>
+    <row r="141" spans="2:6" ht="27">
+      <c r="B141" s="100"/>
+      <c r="C141" s="101" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D141" s="102" t="s">
+        <v>978</v>
+      </c>
+      <c r="E141" s="102" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F141" s="100"/>
+    </row>
+    <row r="142" spans="2:6" ht="27">
+      <c r="B142" s="100"/>
+      <c r="C142" s="103" t="s">
+        <v>998</v>
+      </c>
+      <c r="D142" s="103" t="s">
+        <v>980</v>
+      </c>
+      <c r="E142" s="103" t="s">
+        <v>992</v>
+      </c>
+      <c r="F142" s="100"/>
+    </row>
+    <row r="143" spans="2:6" ht="27">
+      <c r="B143" s="100"/>
+      <c r="C143" s="103" t="s">
+        <v>999</v>
+      </c>
+      <c r="D143" s="103" t="s">
+        <v>981</v>
+      </c>
+      <c r="E143" s="103" t="s">
+        <v>993</v>
+      </c>
+      <c r="F143" s="100"/>
+    </row>
+    <row r="144" spans="2:6" ht="27">
+      <c r="B144" s="100"/>
+      <c r="C144" s="103" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D144" s="103" t="s">
+        <v>982</v>
+      </c>
+      <c r="E144" s="103" t="s">
+        <v>994</v>
+      </c>
+      <c r="F144" s="100"/>
+    </row>
+    <row r="145" spans="2:6" ht="27">
+      <c r="B145" s="100"/>
+      <c r="C145" s="103" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D145" s="103" t="s">
+        <v>983</v>
+      </c>
+      <c r="E145" s="103" t="s">
+        <v>995</v>
+      </c>
+      <c r="F145" s="100"/>
+    </row>
+    <row r="146" spans="2:6" ht="27">
+      <c r="B146" s="100"/>
+      <c r="C146" s="103" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D146" s="103" t="s">
+        <v>984</v>
+      </c>
+      <c r="E146" s="103" t="s">
+        <v>996</v>
+      </c>
+      <c r="F146" s="100"/>
+    </row>
+    <row r="147" spans="2:6" ht="27">
+      <c r="B147" s="100"/>
+      <c r="C147" s="103" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D147" s="103" t="s">
+        <v>985</v>
+      </c>
+      <c r="E147" s="103" t="s">
+        <v>997</v>
+      </c>
+      <c r="F147" s="100"/>
+    </row>
+    <row r="148" spans="2:6" ht="27">
+      <c r="B148" s="100"/>
+      <c r="C148" s="104" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D148" s="103" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E148" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="F148" s="100"/>
+    </row>
+    <row r="149" spans="2:6" ht="27">
+      <c r="B149" s="100"/>
+      <c r="C149" s="100"/>
+      <c r="D149" s="100"/>
+      <c r="E149" s="100"/>
+      <c r="F149" s="100"/>
+    </row>
+    <row r="150" spans="2:6" ht="27">
+      <c r="B150" s="100" t="s">
         <v>1005</v>
       </c>
-      <c r="C140" s="101"/>
-      <c r="D140" s="101"/>
-      <c r="E140" s="101"/>
-      <c r="F140" s="101"/>
-    </row>
-    <row r="141" spans="2:6" ht="27">
-      <c r="B141" s="101"/>
-      <c r="C141" s="102" t="s">
+      <c r="C150" s="100"/>
+      <c r="D150" s="100"/>
+      <c r="E150" s="100"/>
+      <c r="F150" s="100"/>
+    </row>
+    <row r="151" spans="2:6" ht="27">
+      <c r="B151" s="100"/>
+      <c r="C151" s="101" t="s">
         <v>1007</v>
       </c>
-      <c r="D141" s="103" t="s">
+      <c r="D151" s="102" t="s">
         <v>979</v>
       </c>
-      <c r="E141" s="103" t="s">
+      <c r="E151" s="102" t="s">
         <v>1009</v>
       </c>
-      <c r="F141" s="101"/>
-    </row>
-    <row r="142" spans="2:6" ht="27">
-      <c r="B142" s="101"/>
-      <c r="C142" s="104" t="s">
+      <c r="F151" s="100"/>
+    </row>
+    <row r="152" spans="2:6" ht="27">
+      <c r="B152" s="100"/>
+      <c r="C152" s="103" t="s">
+        <v>992</v>
+      </c>
+      <c r="D152" s="103" t="s">
+        <v>986</v>
+      </c>
+      <c r="E152" s="103" t="s">
+        <v>998</v>
+      </c>
+      <c r="F152" s="100"/>
+    </row>
+    <row r="153" spans="2:6" ht="27">
+      <c r="B153" s="100"/>
+      <c r="C153" s="103" t="s">
+        <v>993</v>
+      </c>
+      <c r="D153" s="103" t="s">
+        <v>987</v>
+      </c>
+      <c r="E153" s="103" t="s">
         <v>999</v>
       </c>
-      <c r="D142" s="104" t="s">
-        <v>981</v>
-      </c>
-      <c r="E142" s="104" t="s">
-        <v>993</v>
-      </c>
-      <c r="F142" s="101"/>
-    </row>
-    <row r="143" spans="2:6" ht="27">
-      <c r="B143" s="101"/>
-      <c r="C143" s="104" t="s">
+      <c r="F153" s="100"/>
+    </row>
+    <row r="154" spans="2:6" ht="27">
+      <c r="B154" s="100"/>
+      <c r="C154" s="103" t="s">
+        <v>994</v>
+      </c>
+      <c r="D154" s="103" t="s">
+        <v>988</v>
+      </c>
+      <c r="E154" s="103" t="s">
         <v>1000</v>
       </c>
-      <c r="D143" s="104" t="s">
-        <v>982</v>
-      </c>
-      <c r="E143" s="104" t="s">
-        <v>994</v>
-      </c>
-      <c r="F143" s="101"/>
-    </row>
-    <row r="144" spans="2:6" ht="27">
-      <c r="B144" s="101"/>
-      <c r="C144" s="104" t="s">
+      <c r="F154" s="100"/>
+    </row>
+    <row r="155" spans="2:6" ht="27">
+      <c r="B155" s="100"/>
+      <c r="C155" s="103" t="s">
+        <v>995</v>
+      </c>
+      <c r="D155" s="103" t="s">
+        <v>989</v>
+      </c>
+      <c r="E155" s="103" t="s">
         <v>1001</v>
       </c>
-      <c r="D144" s="104" t="s">
-        <v>983</v>
-      </c>
-      <c r="E144" s="104" t="s">
-        <v>995</v>
-      </c>
-      <c r="F144" s="101"/>
-    </row>
-    <row r="145" spans="2:6" ht="27">
-      <c r="B145" s="101"/>
-      <c r="C145" s="104" t="s">
+      <c r="F155" s="100"/>
+    </row>
+    <row r="156" spans="2:6" ht="27">
+      <c r="B156" s="100"/>
+      <c r="C156" s="103" t="s">
+        <v>996</v>
+      </c>
+      <c r="D156" s="103" t="s">
+        <v>990</v>
+      </c>
+      <c r="E156" s="103" t="s">
         <v>1002</v>
       </c>
-      <c r="D145" s="104" t="s">
-        <v>984</v>
-      </c>
-      <c r="E145" s="104" t="s">
-        <v>996</v>
-      </c>
-      <c r="F145" s="101"/>
-    </row>
-    <row r="146" spans="2:6" ht="27">
-      <c r="B146" s="101"/>
-      <c r="C146" s="104" t="s">
+      <c r="F156" s="100"/>
+    </row>
+    <row r="157" spans="2:6" ht="27">
+      <c r="B157" s="100"/>
+      <c r="C157" s="103" t="s">
+        <v>997</v>
+      </c>
+      <c r="D157" s="103" t="s">
+        <v>991</v>
+      </c>
+      <c r="E157" s="103" t="s">
         <v>1003</v>
       </c>
-      <c r="D146" s="104" t="s">
-        <v>985</v>
-      </c>
-      <c r="E146" s="104" t="s">
-        <v>997</v>
-      </c>
-      <c r="F146" s="101"/>
-    </row>
-    <row r="147" spans="2:6" ht="27">
-      <c r="B147" s="101"/>
-      <c r="C147" s="104" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D147" s="104" t="s">
-        <v>986</v>
-      </c>
-      <c r="E147" s="104" t="s">
-        <v>998</v>
-      </c>
-      <c r="F147" s="101"/>
-    </row>
-    <row r="148" spans="2:6" ht="27">
-      <c r="B148" s="101"/>
-      <c r="C148" s="105" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D148" s="104" t="s">
+      <c r="F157" s="100"/>
+    </row>
+    <row r="158" spans="2:6" ht="27">
+      <c r="B158" s="100"/>
+      <c r="C158" s="104" t="s">
         <v>1012</v>
       </c>
-      <c r="E148" s="106" t="s">
+      <c r="D158" s="103" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E158" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="F148" s="101"/>
-    </row>
-    <row r="149" spans="2:6" ht="27">
-      <c r="B149" s="101"/>
-      <c r="C149" s="101"/>
-      <c r="D149" s="101"/>
-      <c r="E149" s="101"/>
-      <c r="F149" s="101"/>
-    </row>
-    <row r="150" spans="2:6" ht="27">
-      <c r="B150" s="101" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C150" s="101"/>
-      <c r="D150" s="101"/>
-      <c r="E150" s="101"/>
-      <c r="F150" s="101"/>
-    </row>
-    <row r="151" spans="2:6" ht="27">
-      <c r="B151" s="101"/>
-      <c r="C151" s="102" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D151" s="103" t="s">
-        <v>980</v>
-      </c>
-      <c r="E151" s="103" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F151" s="101"/>
-    </row>
-    <row r="152" spans="2:6" ht="27">
-      <c r="B152" s="101"/>
-      <c r="C152" s="104" t="s">
-        <v>993</v>
-      </c>
-      <c r="D152" s="104" t="s">
-        <v>987</v>
-      </c>
-      <c r="E152" s="104" t="s">
-        <v>999</v>
-      </c>
-      <c r="F152" s="101"/>
-    </row>
-    <row r="153" spans="2:6" ht="27">
-      <c r="B153" s="101"/>
-      <c r="C153" s="104" t="s">
-        <v>994</v>
-      </c>
-      <c r="D153" s="104" t="s">
-        <v>988</v>
-      </c>
-      <c r="E153" s="104" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F153" s="101"/>
-    </row>
-    <row r="154" spans="2:6" ht="27">
-      <c r="B154" s="101"/>
-      <c r="C154" s="104" t="s">
-        <v>995</v>
-      </c>
-      <c r="D154" s="104" t="s">
-        <v>989</v>
-      </c>
-      <c r="E154" s="104" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F154" s="101"/>
-    </row>
-    <row r="155" spans="2:6" ht="27">
-      <c r="B155" s="101"/>
-      <c r="C155" s="104" t="s">
-        <v>996</v>
-      </c>
-      <c r="D155" s="104" t="s">
-        <v>990</v>
-      </c>
-      <c r="E155" s="104" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F155" s="101"/>
-    </row>
-    <row r="156" spans="2:6" ht="27">
-      <c r="B156" s="101"/>
-      <c r="C156" s="104" t="s">
-        <v>997</v>
-      </c>
-      <c r="D156" s="104" t="s">
-        <v>991</v>
-      </c>
-      <c r="E156" s="104" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F156" s="101"/>
-    </row>
-    <row r="157" spans="2:6" ht="27">
-      <c r="B157" s="101"/>
-      <c r="C157" s="104" t="s">
-        <v>998</v>
-      </c>
-      <c r="D157" s="104" t="s">
-        <v>992</v>
-      </c>
-      <c r="E157" s="104" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F157" s="101"/>
-    </row>
-    <row r="158" spans="2:6" ht="27">
-      <c r="B158" s="101"/>
-      <c r="C158" s="105" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D158" s="104" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E158" s="106" t="s">
-        <v>68</v>
-      </c>
-      <c r="F158" s="101"/>
+      <c r="F158" s="100"/>
     </row>
     <row r="159" spans="2:6" ht="27">
-      <c r="B159" s="101"/>
-      <c r="C159" s="101"/>
-      <c r="D159" s="101"/>
-      <c r="E159" s="101"/>
-      <c r="F159" s="101"/>
+      <c r="B159" s="100"/>
+      <c r="C159" s="100"/>
+      <c r="D159" s="100"/>
+      <c r="E159" s="100"/>
+      <c r="F159" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14277,10 +14271,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19">
       <c r="A1" s="77" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L1" s="77" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -14288,16 +14282,16 @@
         <v>755</v>
       </c>
       <c r="C2" s="85" t="s">
+        <v>868</v>
+      </c>
+      <c r="D2" s="85" t="s">
         <v>869</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="E2" s="85" t="s">
         <v>870</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="F2" s="85" t="s">
         <v>871</v>
-      </c>
-      <c r="F2" s="85" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -14305,10 +14299,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="80" t="s">
+        <v>872</v>
+      </c>
+      <c r="D3" s="80" t="s">
         <v>873</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>874</v>
       </c>
       <c r="E3" s="81">
         <v>45839.375</v>
@@ -14317,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -14325,10 +14319,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="80" t="s">
+        <v>874</v>
+      </c>
+      <c r="D4" s="80" t="s">
         <v>875</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>876</v>
       </c>
       <c r="E4" s="81">
         <v>45839.375</v>
@@ -14337,38 +14331,38 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="19">
       <c r="A7" s="77" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17">
       <c r="B8" s="85" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C8" s="85" t="s">
         <v>752</v>
       </c>
       <c r="D8" s="85" t="s">
+        <v>879</v>
+      </c>
+      <c r="E8" s="85" t="s">
         <v>880</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="F8" s="85" t="s">
         <v>881</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="G8" s="85" t="s">
         <v>882</v>
       </c>
-      <c r="G8" s="85" t="s">
-        <v>883</v>
-      </c>
       <c r="M8" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17">
@@ -14376,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D9" s="82">
         <v>43840</v>
@@ -14385,13 +14379,13 @@
         <v>80000</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G9" s="80">
         <v>1</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17">
@@ -14399,7 +14393,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D10" s="82">
         <v>44336</v>
@@ -14408,47 +14402,47 @@
         <v>70000</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G10" s="80">
         <v>1</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19">
       <c r="A14" s="77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19">
       <c r="B15" s="85" t="s">
+        <v>888</v>
+      </c>
+      <c r="C15" s="85" t="s">
         <v>889</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="D15" s="85" t="s">
         <v>890</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="E15" s="85" t="s">
         <v>891</v>
       </c>
-      <c r="E15" s="85" t="s">
-        <v>892</v>
-      </c>
       <c r="F15" s="85" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G15" s="85" t="s">
         <v>755</v>
       </c>
       <c r="H15" s="85" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I15" s="85" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L15" s="77" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -14456,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D16" s="80">
         <v>3</v>
@@ -14482,7 +14476,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D17" s="80">
         <v>4</v>
@@ -14505,17 +14499,17 @@
     </row>
     <row r="18" spans="1:13">
       <c r="L18" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="L19" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19">
       <c r="A20" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -14533,19 +14527,19 @@
         <v>754</v>
       </c>
       <c r="F21" s="85" t="s">
+        <v>896</v>
+      </c>
+      <c r="G21" s="85" t="s">
         <v>897</v>
       </c>
-      <c r="G21" s="85" t="s">
+      <c r="H21" s="85" t="s">
         <v>898</v>
-      </c>
-      <c r="H21" s="85" t="s">
-        <v>899</v>
       </c>
       <c r="I21" s="85" t="s">
         <v>755</v>
       </c>
       <c r="J21" s="85" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17">
@@ -14577,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="17">
@@ -14609,38 +14603,38 @@
         <v>1</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="17">
       <c r="M24" s="15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="19">
       <c r="A26" s="79" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="78"/>
       <c r="B27" s="84" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C27" s="84" t="s">
         <v>751</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E27" s="84" t="s">
+        <v>901</v>
+      </c>
+      <c r="F27" s="84" t="s">
         <v>902</v>
       </c>
-      <c r="F27" s="84" t="s">
+      <c r="G27" s="84" t="s">
         <v>903</v>
-      </c>
-      <c r="G27" s="84" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19">
@@ -14663,7 +14657,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="77" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -14708,157 +14702,157 @@
     </row>
     <row r="31" spans="1:13">
       <c r="L31" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="L32" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="35" spans="12:13" ht="17">
       <c r="M35" s="15" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="36" spans="12:13" ht="17">
       <c r="M36" s="15" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="37" spans="12:13" ht="17">
       <c r="M37" s="15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="41" spans="12:13" ht="19">
       <c r="L41" s="77" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="44" spans="12:13">
       <c r="L44" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="45" spans="12:13">
       <c r="L45" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="48" spans="12:13" ht="17">
       <c r="M48" s="15" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="49" spans="12:13" ht="17">
       <c r="M49" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="50" spans="12:13" ht="17">
       <c r="M50" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="51" spans="12:13" ht="17">
       <c r="M51" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="55" spans="12:13" ht="19">
       <c r="L55" s="77" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="58" spans="12:13">
       <c r="L58" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="59" spans="12:13">
       <c r="L59" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="62" spans="12:13" ht="17">
       <c r="M62" s="15" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="63" spans="12:13" ht="17">
       <c r="M63" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="64" spans="12:13" ht="17">
       <c r="M64" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="65" spans="12:13" ht="17">
       <c r="M65" s="15" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="66" spans="12:13" ht="17">
       <c r="M66" s="15" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="70" spans="12:13" ht="19">
       <c r="L70" s="77" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="73" spans="12:13">
       <c r="L73" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="74" spans="12:13">
       <c r="L74" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="77" spans="12:13" ht="17">
       <c r="M77" s="15" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="78" spans="12:13" ht="17">
       <c r="M78" s="15" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="79" spans="12:13" ht="17">
       <c r="M79" s="15" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="80" spans="12:13" ht="17">
       <c r="M80" s="15" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="84" spans="12:12" ht="19">
       <c r="L84" s="77" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="87" spans="12:12">
       <c r="L87" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="88" spans="12:12">
       <c r="L88" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="91" spans="12:12">
       <c r="L91" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
   </sheetData>
